--- a/tests/expected_results/result_test_download_iuvo_statement_no_cfs.xlsx
+++ b/tests/expected_results/result_test_download_iuvo_statement_no_cfs.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/tests/expected_results/result_test_download_iuvo_statement_no_cfs.xlsx
+++ b/tests/expected_results/result_test_download_iuvo_statement_no_cfs.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +50,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -340,19 +348,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AccountStatement</t>
+        </is>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Transaction ID</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Transaction Type</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Loan ID</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Portfolio Name</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rows: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Report completed successfully</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>